--- a/zomato.xlsx
+++ b/zomato.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python Practise\Zomato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE65F4A1-B58E-4039-8CA5-313E35133A77}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E179DD2B-EA47-4C11-B56B-994E9752A5A5}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,70 +40,70 @@
     <t xml:space="preserve">McDonald's                                     </t>
   </si>
   <si>
+    <t xml:space="preserve"> HPCL, KPIT Cummins, Near Krishna Petrol Pump, Phase 2 Road, Hinjawadi, Pune</t>
+  </si>
+  <si>
     <t>3.8</t>
   </si>
   <si>
     <t xml:space="preserve"> Shop 22, Balewadi High Street, Cummins India Office Complex, Baner, Pune</t>
   </si>
   <si>
-    <t xml:space="preserve"> HPCL, KPIT Cummins, Near Krishna Petrol Pump, Phase 2 Road, Hinjawadi, Pune</t>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Premier Plaza, Old Mumbai Pune Highway, Chinchwad, Pune</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rainbow Plaza, Near Shivar Garden, Pimple Saudagar, Pune</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ground Floor, Shop 6, Mezzanine &amp; Go Building-A, Survey 60, Next to WTC-II, Kharadi, Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 8 -14 Stellar Enclave, DP Road, Aundh, Pune</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ground Floor, Mariplex Mall, Kalyani Nagar, Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Near City Pride Multiplex,  692 A2A Saluja Chambers, Satara Road, Pune</t>
   </si>
   <si>
     <t>3.5</t>
   </si>
   <si>
-    <t xml:space="preserve"> Premier Plaza, Old Mumbai Pune Highway, Chinchwad, Pune</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Rainbow Plaza, Near Shivar Garden, Pimple Saudagar, Pune</t>
-  </si>
-  <si>
-    <t>NEW</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ground Floor, Shop 6, Mezzanine &amp; Go Building-A, Survey 60, Next to WTC-II, Kharadi, Pune</t>
-  </si>
-  <si>
-    <t>3.6</t>
+    <t xml:space="preserve"> Ground Floor, Suyog Plaza, JM Road, Pune</t>
   </si>
   <si>
     <t xml:space="preserve"> GA 18-19, Sacred World Mall, Jagtap Chowk, Wanowrie, Pune</t>
   </si>
   <si>
-    <t xml:space="preserve"> 8 -14 Stellar Enclave, DP Road, Aundh, Pune</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Near City Pride Multiplex,  692 A2A Saluja Chambers, Satara Road, Pune</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ground Floor, Mariplex Mall, Kalyani Nagar, Pune</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Ground Floor, Suyog Plaza, JM Road, Pune</t>
+    <t xml:space="preserve"> Survey 127, Gopal House, Harshal Gardens, Karve Road, Kothrud, Pune</t>
   </si>
   <si>
     <t xml:space="preserve"> Survey 32/2, Gurukrupa Hall, Ambegaon Budruk, Near Dmart, Dhankawadi, Pune</t>
   </si>
   <si>
-    <t xml:space="preserve"> Survey 127, Gopal House, Harshal Gardens, Karve Road, Kothrud, Pune</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dorabjee Mall, Survey 25/5, NIBM Extension, Dorabjee Paradise, NIBM Road, Pune</t>
-  </si>
-  <si>
-    <t>3.0</t>
+    <t>3.1</t>
   </si>
   <si>
     <t xml:space="preserve"> Survey 15/4, Near Santosh Nagar, Thergaon, Dange Chowk, Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loni Kalbhor, Pune-Solapur Road, Pune</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mcdonald's                                     </t>
   </si>
 </sst>
 </file>
@@ -468,14 +468,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="86" customWidth="1"/>
-    <col min="4" max="4" width="40.140625" customWidth="1"/>
+    <col min="3" max="3" width="56.28515625" customWidth="1"/>
+    <col min="4" max="4" width="52.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -508,10 +506,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
@@ -522,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -578,10 +576,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>5</v>
@@ -592,7 +590,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -606,7 +604,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
         <v>18</v>
@@ -662,7 +660,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -690,13 +688,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s">
         <v>26</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
